--- a/csv/xls.xlsx
+++ b/csv/xls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/lena_reimann_vu_nl/Documents/Global_data_repository_paper/catalog/STAC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrn238\Documents\GitHub\climate-risk-stac\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{58B9DACE-7452-4D63-9901-691DEF97E14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AACB7D6-9F2A-470C-91DD-62AC38268E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xls" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="156">
   <si>
     <t>catalog1</t>
   </si>
@@ -509,12 +509,21 @@
   </si>
   <si>
     <t>random forest modeling</t>
+  </si>
+  <si>
+    <t>name_contributor</t>
+  </si>
+  <si>
+    <t>Lena Reimann</t>
+  </si>
+  <si>
+    <t>netcdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1018,7 +1027,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1027,9 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1077,6 +1084,13 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1096,9 +1110,9 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color theme="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1107,31 +1121,6 @@
           <color theme="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1154,13 +1143,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="1"/>
         </top>
@@ -1171,13 +1153,6 @@
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1201,16 +1176,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1232,6 +1207,20 @@
       </font>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1251,16 +1240,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1283,16 +1272,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1315,16 +1304,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1347,16 +1336,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1379,16 +1368,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1411,16 +1400,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1443,16 +1432,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1475,16 +1464,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1507,17 +1496,35 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1533,181 +1540,181 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A3" totalsRowShown="0">
-  <autoFilter ref="A1:A3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A3" totalsRowShown="0">
+  <autoFilter ref="A1:A3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="catalog1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="catalog1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="K1:K4" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="K1:K4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table17" displayName="Table17" ref="K1:K4" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="K1:K4" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="reference_period"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="reference_period"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="L1:L8" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="22">
-  <autoFilter ref="L1:L8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table18" displayName="Table18" ref="L1:L8" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="L1:L8" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="temporal_interval"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="temporal_interval"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="M1:M5" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="19">
-  <autoFilter ref="M1:M5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table19" displayName="Table19" ref="M1:M5" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="M1:M5" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="scenarios"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="scenarios"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="N1:N4" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="N1:N4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table20" displayName="Table20" ref="N1:N4" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="N1:N4" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="data_calculation_type"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="data_calculation_type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="P1:P5" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="P1:P5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table21" displayName="Table21" ref="P1:P5" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="P1:P5" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="provider_role"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="provider_role"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table22" displayName="Table22" ref="Q1:Q10" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="Q1:Q10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table22" displayName="Table22" ref="Q1:Q10" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="Q1:Q10" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="license"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="license"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table23" displayName="Table23" ref="S1:S4" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="S1:S4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table23" displayName="Table23" ref="S1:S4" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="S1:S4" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="code_type"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="code_type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table24" displayName="Table24" ref="R1:R4" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="R1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table24" displayName="Table24" ref="R1:R4" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="R1:R4" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="publication_type"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="publication_type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table25" displayName="Table25" ref="O1:O7" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
-  <autoFilter ref="O1:O7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table25" displayName="Table25" ref="O1:O7" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+  <autoFilter ref="O1:O7" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="analysis_type"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="analysis_type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B1:B11" totalsRowShown="0">
-  <autoFilter ref="B1:B11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="B1:B11" totalsRowShown="0">
+  <autoFilter ref="B1:B11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="catalog 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="catalog 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C1:C19" totalsRowShown="0">
-  <autoFilter ref="C1:C19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="C1:C19" totalsRowShown="0">
+  <autoFilter ref="C1:C19" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="catalog 3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="catalog 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="D1:D4" totalsRowShown="0">
-  <autoFilter ref="D1:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table9" displayName="Table9" ref="D1:D4" totalsRowShown="0">
+  <autoFilter ref="D1:D4" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="risk_data_type"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="risk_data_type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="E1:E4" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="40">
-  <autoFilter ref="E1:E4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table10" displayName="Table10" ref="E1:E4" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38">
+  <autoFilter ref="E1:E4" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="data_type"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="data_type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="F1:F7" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="37">
-  <autoFilter ref="F1:F7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table11" displayName="Table11" ref="F1:F8" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
+  <autoFilter ref="F1:F8" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="format"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="format"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="G1:G5" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="34">
-  <autoFilter ref="G1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table13" displayName="Table13" ref="G1:G5" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
+  <autoFilter ref="G1:G5" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="spatial_scale"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="spatial_scale"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="H1:I3" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="31">
-  <autoFilter ref="H1:I3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table14" displayName="Table14" ref="H1:I3" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29">
+  <autoFilter ref="H1:I3" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="crs_name"/>
-    <tableColumn id="2" name="crs_code"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="crs_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="crs_code"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="J1:J6" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="28">
-  <autoFilter ref="J1:J6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table16" displayName="Table16" ref="J1:J6" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="J1:J6" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="spatial_resolution_unit"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="spatial_resolution_unit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2009,632 +2016,644 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="4"/>
-    <col min="12" max="12" width="11.109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="4"/>
-    <col min="14" max="14" width="13.33203125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="10.21875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="21.5546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="17" style="4" customWidth="1"/>
-    <col min="20" max="20" width="19.5546875" style="4" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" style="4" customWidth="1"/>
-    <col min="23" max="23" width="21" style="4" customWidth="1"/>
-    <col min="24" max="24" width="20.44140625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="15.88671875" style="4" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" style="4" customWidth="1"/>
-    <col min="28" max="28" width="8.88671875" style="4"/>
-    <col min="29" max="29" width="13" style="4" customWidth="1"/>
-    <col min="30" max="30" width="15.6640625" style="4" customWidth="1"/>
-    <col min="31" max="31" width="16.44140625" style="4" customWidth="1"/>
-    <col min="32" max="32" width="10.6640625" style="4" customWidth="1"/>
-    <col min="33" max="33" width="11.44140625" style="4" customWidth="1"/>
-    <col min="34" max="34" width="13.109375" style="4" customWidth="1"/>
-    <col min="35" max="35" width="8.88671875" style="4"/>
-    <col min="36" max="44" width="10.109375" style="4" customWidth="1"/>
-    <col min="45" max="134" width="11.109375" style="4" customWidth="1"/>
-    <col min="135" max="1034" width="12.109375" style="4" customWidth="1"/>
-    <col min="1035" max="10034" width="13.109375" style="4" customWidth="1"/>
-    <col min="10035" max="16384" width="14.109375" style="4" customWidth="1"/>
+    <col min="1" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" customWidth="1"/>
+    <col min="23" max="23" width="21" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" customWidth="1"/>
+    <col min="29" max="29" width="13" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" customWidth="1"/>
+    <col min="36" max="36" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="44" width="10.140625" customWidth="1"/>
+    <col min="45" max="134" width="11.140625" customWidth="1"/>
+    <col min="135" max="1034" width="12.140625" customWidth="1"/>
+    <col min="1035" max="10034" width="13.140625" customWidth="1"/>
+    <col min="10035" max="16384" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" t="s">
         <v>101</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2">
         <v>4326</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" t="s">
         <v>115</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" t="s">
         <v>142</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" t="s">
         <v>128</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" t="s">
         <v>134</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="AJ2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" t="s">
         <v>101</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3">
         <v>4326</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3">
         <v>30</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" t="s">
         <v>115</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" t="s">
         <v>142</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" t="s">
         <v>51</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" t="s">
         <v>52</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" t="s">
         <v>128</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" t="s">
         <v>53</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" t="s">
         <v>55</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" t="s">
         <v>56</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="AJ3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" t="s">
         <v>101</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4">
         <v>54009</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" t="s">
         <v>115</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" t="s">
         <v>49</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" t="s">
         <v>142</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" t="s">
         <v>52</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" t="s">
         <v>128</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" t="s">
         <v>134</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AC4" t="s">
         <v>53</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AD4" t="s">
         <v>54</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AE4" t="s">
         <v>55</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AH4" t="s">
         <v>56</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AI4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="AJ4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" t="s">
         <v>101</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <v>54009</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5">
         <v>1000</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" t="s">
         <v>64</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" t="s">
         <v>115</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" t="s">
         <v>47</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" t="s">
         <v>48</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" t="s">
         <v>49</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" t="s">
         <v>50</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" t="s">
         <v>142</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" t="s">
         <v>51</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" t="s">
         <v>52</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" t="s">
         <v>128</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AB5" t="s">
         <v>134</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AC5" t="s">
         <v>53</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AD5" t="s">
         <v>54</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" t="s">
         <v>55</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AH5" t="s">
         <v>56</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AI5" t="s">
         <v>68</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="22">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>catalog2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>catalog1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1 xml:space="preserve"> catalog3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1 xml:space="preserve"> risk_data_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1 xml:space="preserve"> data_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1 xml:space="preserve"> format</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1 xml:space="preserve"> spatial_scale</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1 xml:space="preserve"> crs_name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1 xml:space="preserve"> crs_code</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1 xml:space="preserve"> spatial_resolution_unit</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1 xml:space="preserve"> reference_period</formula1>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1 xml:space="preserve"> temporal_interval</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1 xml:space="preserve"> scenarios</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1 xml:space="preserve"> data_calculation_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1 xml:space="preserve"> provider_role</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576" xr:uid="{00000000-0002-0000-0000-000012000000}">
       <formula1 xml:space="preserve"> license</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576" xr:uid="{00000000-0002-0000-0000-000013000000}">
       <formula1 xml:space="preserve"> analysis_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576" xr:uid="{00000000-0002-0000-0000-000014000000}">
       <formula1 xml:space="preserve"> publication_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:AG1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:AG1048576" xr:uid="{00000000-0002-0000-0000-000015000000}">
       <formula1 xml:space="preserve"> code_type</formula1>
     </dataValidation>
   </dataValidations>
@@ -2643,34 +2662,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S4"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="14" max="15" width="21.5546875" customWidth="1"/>
-    <col min="16" max="16" width="14.21875" customWidth="1"/>
-    <col min="18" max="18" width="17.109375" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2722,14 +2741,14 @@
       <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -2788,7 +2807,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2805,7 +2824,7 @@
         <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="G3" t="s">
         <v>107</v>
@@ -2847,7 +2866,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>74</v>
       </c>
@@ -2861,7 +2880,7 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
         <v>108</v>
@@ -2897,7 +2916,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>75</v>
       </c>
@@ -2905,7 +2924,7 @@
         <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" t="s">
         <v>109</v>
@@ -2929,7 +2948,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>76</v>
       </c>
@@ -2937,7 +2956,7 @@
         <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" t="s">
         <v>112</v>
@@ -2952,7 +2971,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>77</v>
       </c>
@@ -2960,7 +2979,7 @@
         <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
         <v>119</v>
@@ -2972,13 +2991,16 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
       </c>
+      <c r="F8" t="s">
+        <v>106</v>
+      </c>
       <c r="L8" t="s">
         <v>120</v>
       </c>
@@ -2986,7 +3008,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>78</v>
       </c>
@@ -2997,7 +3019,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>79</v>
       </c>
@@ -3008,7 +3030,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>80</v>
       </c>
@@ -3016,115 +3038,117 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/xls.xlsx
+++ b/csv/xls.xlsx
@@ -8,37 +8,52 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrn238\Documents\GitHub\climate-risk-stac\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AACB7D6-9F2A-470C-91DD-62AC38268E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE648457-675F-44A6-A0D1-79C9368AD2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="xls" sheetId="1" r:id="rId1"/>
-    <sheet name="lists" sheetId="2" r:id="rId2"/>
+    <sheet name="instructions" sheetId="4" r:id="rId1"/>
+    <sheet name="hazard" sheetId="3" r:id="rId2"/>
+    <sheet name="exposure-vulnerability" sheetId="1" r:id="rId3"/>
+    <sheet name="lists" sheetId="2" r:id="rId4"/>
+    <sheet name="description_attributes" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="analysis_type">Table25[analysis_type]</definedName>
+    <definedName name="analysis_type">Table25[analysis_type_h]</definedName>
+    <definedName name="analysis_type_ev">Table12[analysis_type_ev]</definedName>
+    <definedName name="analysis_type_h">Table25[analysis_type_h]</definedName>
     <definedName name="bbox">#REF!</definedName>
-    <definedName name="catalog1">Table1[catalog1]</definedName>
-    <definedName name="catalog2">Table2[catalog 2]</definedName>
-    <definedName name="catalog3">Table5[catalog 3]</definedName>
+    <definedName name="catalog_ev">Table7[catalog_ev]</definedName>
+    <definedName name="catalog_h">Table1[catalog_h]</definedName>
+    <definedName name="catalog1">Table1[catalog_h]</definedName>
+    <definedName name="catalog2">Table2[category_h]</definedName>
+    <definedName name="catalog3">Table5[subcategory_h]</definedName>
+    <definedName name="category">Table2[category_h]</definedName>
+    <definedName name="category_ev">Table3[category_ev]</definedName>
+    <definedName name="category_h">Table2[category_h]</definedName>
     <definedName name="code_type">Table23[code_type]</definedName>
     <definedName name="crs_code">Table14[crs_code]</definedName>
     <definedName name="crs_name">lists!$H$2:$H$3</definedName>
     <definedName name="data_calculation_type">Table20[data_calculation_type]</definedName>
     <definedName name="data_type">Table10[data_type]</definedName>
-    <definedName name="driver">Table1[catalog1]</definedName>
+    <definedName name="driver">Table1[catalog_h]</definedName>
     <definedName name="exposure">#REF!</definedName>
     <definedName name="format">Table11[format]</definedName>
-    <definedName name="hazard">Table2[catalog 2]</definedName>
+    <definedName name="hazard">Table2[category_h]</definedName>
     <definedName name="license">Table22[license]</definedName>
     <definedName name="provider_role">Table21[provider_role]</definedName>
     <definedName name="publication_type">Table24[publication_type]</definedName>
     <definedName name="reference_period">Table17[reference_period]</definedName>
-    <definedName name="risk_data_type">Table9[risk_data_type]</definedName>
+    <definedName name="risk_data_tyoe_h">Table9[risk_data_type_h]</definedName>
+    <definedName name="risk_data_type">Table9[risk_data_type_h]</definedName>
+    <definedName name="risk_data_type_ev">Table8[risk_data_type_ev]</definedName>
+    <definedName name="risk_data_type_h">Table9[risk_data_type_h]</definedName>
     <definedName name="scenarios">Table19[scenarios]</definedName>
     <definedName name="spatial_resolution_unit">Table16[spatial_resolution_unit]</definedName>
     <definedName name="spatial_scale">Table13[spatial_scale]</definedName>
+    <definedName name="subcategory_ev">Table4[subcategory_ev]</definedName>
+    <definedName name="subcategory_h">Table5[subcategory_h]</definedName>
     <definedName name="temporal_interval">Table18[temporal_interval]</definedName>
     <definedName name="time_interval">Table18[temporal_interval]</definedName>
   </definedNames>
@@ -47,16 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="156">
-  <si>
-    <t>catalog1</t>
-  </si>
-  <si>
-    <t>catalog2</t>
-  </si>
-  <si>
-    <t>catalog3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="207">
   <si>
     <t>risk_data_type</t>
   </si>
@@ -262,12 +268,6 @@
     <t>hazard</t>
   </si>
   <si>
-    <t>catalog 2</t>
-  </si>
-  <si>
-    <t>catalog 3</t>
-  </si>
-  <si>
     <t>flooding</t>
   </si>
   <si>
@@ -518,13 +518,181 @@
   </si>
   <si>
     <t>netcdf</t>
+  </si>
+  <si>
+    <t>catalog</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>category_ev</t>
+  </si>
+  <si>
+    <t>category_h</t>
+  </si>
+  <si>
+    <t>subcategory_h</t>
+  </si>
+  <si>
+    <t>subcategory_ev</t>
+  </si>
+  <si>
+    <t>risk_data_type_ev</t>
+  </si>
+  <si>
+    <t>catalog_h</t>
+  </si>
+  <si>
+    <t>catalog_ev</t>
+  </si>
+  <si>
+    <t>risk_data_type_h</t>
+  </si>
+  <si>
+    <t>SSP-RCP combinations</t>
+  </si>
+  <si>
+    <t>analysis_type_h</t>
+  </si>
+  <si>
+    <t>analysis_type_ev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructions: How to fill in the data sheet? </t>
+  </si>
+  <si>
+    <t>3) use the drop-down menus. If an item is not defined yet, please add it in the 'lists' tab in the respective table (row 1 = hazard data; row 15 = exposure-vulnerability data (if different from hazard))</t>
+  </si>
+  <si>
+    <t>1) select the right data category and subcategory (see hierarchical structure below)</t>
+  </si>
+  <si>
+    <t>2) follow the formatting of the example data provided (see 'description_attributes' tab for further details)</t>
+  </si>
+  <si>
+    <t>column_name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>id of catalog (i.e. hazard or exposure-vulnerability)</t>
+  </si>
+  <si>
+    <t>category of data type</t>
+  </si>
+  <si>
+    <t>subcategory of data type</t>
+  </si>
+  <si>
+    <t>risk driver (i.e. hazard, exposure, vulnerability)</t>
+  </si>
+  <si>
+    <t>dataset (collection) name</t>
+  </si>
+  <si>
+    <t>short name of dataset (if applicable)</t>
+  </si>
+  <si>
+    <t>short description of dataset (collection)</t>
+  </si>
+  <si>
+    <t>name of specific dataset item</t>
+  </si>
+  <si>
+    <t>short description of dataset item</t>
+  </si>
+  <si>
+    <t>dataset item id</t>
+  </si>
+  <si>
+    <t>bounding box coordinates (WGS coordinates)</t>
+  </si>
+  <si>
+    <t>data type (i.e. raster, vector, tabular (lat/lon)</t>
+  </si>
+  <si>
+    <t>data format (i.e. geotiff, geopackage, shapefile, geodatabase, csv)</t>
+  </si>
+  <si>
+    <t>spatial scale (i.e. global, regional, national, subnational; for now global only)</t>
+  </si>
+  <si>
+    <t>name of the coordinate reference system (CRS) (e.g. WGS84, Mollweide)</t>
+  </si>
+  <si>
+    <t>numerical code of CRS (e.g. 4326, 54009)</t>
+  </si>
+  <si>
+    <t>spatial resolution (numeric or administrative unit level)</t>
+  </si>
+  <si>
+    <t>spatial resolution unit (i.e. arc seconds, arc minutes, decimal degrees, meters, kilometers)</t>
+  </si>
+  <si>
+    <t>reference period for which the data are available (i.e. historical, future, historical &amp; future)</t>
+  </si>
+  <si>
+    <t>temporal resolution of the data (YYYY or YYYY-YYYY)</t>
+  </si>
+  <si>
+    <t>temporal intervals of the data (i.e. hourly, daily, monthly, yearly, 5-yearly, 10-yearly, irregular)</t>
+  </si>
+  <si>
+    <t>name of scenarios used (if future) (e.g. RCPs, SSPs, warming levels)</t>
+  </si>
+  <si>
+    <t>method used for data calculation (i.e. inferred, observed, simulated)</t>
+  </si>
+  <si>
+    <t>method used for calculating the data (i.e. probabilistic, deterministic, empirical for hazards; e.g. dasymetric modeling, random forest modeling for exposure &amp; vulnerability)</t>
+  </si>
+  <si>
+    <t>data underlying the calculation type and approach (if applicable)</t>
+  </si>
+  <si>
+    <t>name of data provider</t>
+  </si>
+  <si>
+    <t>role of data provider (i.e. licensor, producer, processor, host)</t>
+  </si>
+  <si>
+    <t>data distribution license (e.g CC0-1.0, CC-BY-4.0, CC-BY-SA-4.0)</t>
+  </si>
+  <si>
+    <t>link to the website where the data can be accessed</t>
+  </si>
+  <si>
+    <t>link to publication (e.g. doi)</t>
+  </si>
+  <si>
+    <t>type of publication (e.g. report, article, documentation)</t>
+  </si>
+  <si>
+    <t>link to available code (e.g. doi)</t>
+  </si>
+  <si>
+    <t>type of available code (e.g. for data download, processing, application)</t>
+  </si>
+  <si>
+    <t>any relevant information for using the data</t>
+  </si>
+  <si>
+    <t>links to specific data files</t>
+  </si>
+  <si>
+    <t>4) provide the links to each data file if possible (column 'assets')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,8 +833,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,6 +1020,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -1027,7 +1209,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1037,6 +1219,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1082,7 +1272,114 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="50">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
@@ -1539,18 +1836,67 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>24360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D5AAD7-4A95-D16E-7FC3-6175BE397AC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="2782878"/>
+          <a:ext cx="5655540" cy="3069281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A3" totalsRowShown="0">
-  <autoFilter ref="A1:A3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="catalog1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="catalog_h"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table17" displayName="Table17" ref="K1:K4" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table17" displayName="Table17" ref="K1:K4" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="K1:K4" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="reference_period"/>
@@ -1560,7 +1906,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table18" displayName="Table18" ref="L1:L8" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table18" displayName="Table18" ref="L1:L8" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29">
   <autoFilter ref="L1:L8" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="temporal_interval"/>
@@ -1570,8 +1916,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table19" displayName="Table19" ref="M1:M5" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="M1:M5" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table19" displayName="Table19" ref="M1:M6" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="M1:M6" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="scenarios"/>
   </tableColumns>
@@ -1580,7 +1926,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table20" displayName="Table20" ref="N1:N4" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table20" displayName="Table20" ref="N1:N4" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="N1:N4" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="data_calculation_type"/>
@@ -1590,7 +1936,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table21" displayName="Table21" ref="P1:P5" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table21" displayName="Table21" ref="P1:P5" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="P1:P5" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="provider_role"/>
@@ -1600,7 +1946,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table22" displayName="Table22" ref="Q1:Q10" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table22" displayName="Table22" ref="Q1:Q10" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="Q1:Q10" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="license"/>
@@ -1610,7 +1956,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table23" displayName="Table23" ref="S1:S4" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table23" displayName="Table23" ref="S1:S4" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="S1:S4" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="code_type"/>
@@ -1620,7 +1966,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table24" displayName="Table24" ref="R1:R4" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table24" displayName="Table24" ref="R1:R4" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="R1:R4" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="publication_type"/>
@@ -1630,47 +1976,108 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table25" displayName="Table25" ref="O1:O7" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
-  <autoFilter ref="O1:O7" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table25" displayName="Table25" ref="O1:O4" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9">
+  <autoFilter ref="O1:O4" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="analysis_type"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="analysis_type_h"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40913DF8-C977-451C-94F8-5B628A6358B9}" name="Table3" displayName="Table3" ref="B16:B20" totalsRowShown="0" tableBorderDxfId="8">
+  <autoFilter ref="B16:B20" xr:uid="{40913DF8-C977-451C-94F8-5B628A6358B9}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{93411404-868A-4D78-957F-082AE9073304}" name="category_ev"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="B1:B11" totalsRowShown="0">
-  <autoFilter ref="B1:B11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="B1:B7" totalsRowShown="0">
+  <autoFilter ref="B1:B7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="catalog 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="category_h"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E0CF8272-2655-411E-8F81-0ABC7D1229C5}" name="Table4" displayName="Table4" ref="C16:C26" totalsRowShown="0" dataDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="C16:C26" xr:uid="{E0CF8272-2655-411E-8F81-0ABC7D1229C5}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{CE3EB7B9-F27A-41EC-BFDA-4E985DA09D8C}" name="subcategory_ev" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{66345022-C6F1-4E69-8064-15BB2C37E459}" name="Table7" displayName="Table7" ref="A16:A17" totalsRowShown="0" dataDxfId="2" tableBorderDxfId="4">
+  <autoFilter ref="A16:A17" xr:uid="{66345022-C6F1-4E69-8064-15BB2C37E459}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{D5F16E67-2016-4C59-87CE-DF865B76EA1E}" name="catalog_ev" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E50036A4-7E68-48D5-94B6-051D3EEF31FF}" name="Table8" displayName="Table8" ref="D16:D18" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="D16:D18" xr:uid="{E50036A4-7E68-48D5-94B6-051D3EEF31FF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{CCD2CA37-BA3F-4DB2-B514-C1A20DCE1296}" name="risk_data_type_ev"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FB3D51D1-8F5A-4CDF-9D78-D2C98BA079AA}" name="Table12" displayName="Table12" ref="O16:O19" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="O16:O19" xr:uid="{FB3D51D1-8F5A-4CDF-9D78-D2C98BA079AA}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{4206EC5C-F751-4AD4-922C-B59BA748F91B}" name="analysis_type_ev"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E57548BF-F6F8-4962-9D83-7D6183772EF6}" name="Table15" displayName="Table15" ref="A1:B36" totalsRowShown="0">
+  <autoFilter ref="A1:B36" xr:uid="{E57548BF-F6F8-4962-9D83-7D6183772EF6}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3011CF4D-0986-4C1C-9835-3788B0395F10}" name="column_name"/>
+    <tableColumn id="2" xr3:uid="{A32B2325-F69E-4A30-B03B-EA2B3324B8A8}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="C1:C19" totalsRowShown="0">
-  <autoFilter ref="C1:C19" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="C1:C9" totalsRowShown="0">
+  <autoFilter ref="C1:C9" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="catalog 3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="subcategory_h"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table9" displayName="Table9" ref="D1:D4" totalsRowShown="0">
-  <autoFilter ref="D1:D4" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table9" displayName="Table9" ref="D1:D2" totalsRowShown="0">
+  <autoFilter ref="D1:D2" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="risk_data_type"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="risk_data_type_h"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table10" displayName="Table10" ref="E1:E4" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table10" displayName="Table10" ref="E1:E4" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47">
   <autoFilter ref="E1:E4" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="data_type"/>
@@ -1680,7 +2087,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table11" displayName="Table11" ref="F1:F8" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table11" displayName="Table11" ref="F1:F8" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44">
   <autoFilter ref="F1:F8" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="format"/>
@@ -1690,7 +2097,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table13" displayName="Table13" ref="G1:G5" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table13" displayName="Table13" ref="G1:G5" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="G1:G5" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="spatial_scale"/>
@@ -1700,7 +2107,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table14" displayName="Table14" ref="H1:I3" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table14" displayName="Table14" ref="H1:I3" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="H1:I3" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="crs_name"/>
@@ -1711,7 +2118,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table16" displayName="Table16" ref="J1:J6" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table16" displayName="Table16" ref="J1:J6" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="J1:J6" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="spatial_resolution_unit"/>
@@ -2016,207 +2423,1590 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084E186A-714A-4CF5-8DBA-06DF2B5CF2A1}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="B2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" customWidth="1"/>
-    <col min="19" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" customWidth="1"/>
-    <col min="23" max="23" width="21" customWidth="1"/>
-    <col min="24" max="24" width="20.42578125" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" customWidth="1"/>
-    <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" customWidth="1"/>
-    <col min="31" max="31" width="16.42578125" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" customWidth="1"/>
-    <col min="36" max="36" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="44" width="10.140625" customWidth="1"/>
-    <col min="45" max="134" width="11.140625" customWidth="1"/>
-    <col min="135" max="1034" width="12.140625" customWidth="1"/>
-    <col min="1035" max="10034" width="13.140625" customWidth="1"/>
-    <col min="10035" max="16384" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="83.77734375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A95863-A432-475C-8509-836AFF0CF9F4}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:AJ200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" customWidth="1"/>
+    <col min="18" max="18" width="21.5546875" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" customWidth="1"/>
+    <col min="23" max="23" width="21" customWidth="1"/>
+    <col min="24" max="24" width="20.44140625" customWidth="1"/>
+    <col min="25" max="25" width="15.88671875" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
+    <col min="27" max="27" width="13.88671875" customWidth="1"/>
+    <col min="29" max="29" width="13" customWidth="1"/>
+    <col min="30" max="30" width="15.6640625" customWidth="1"/>
+    <col min="31" max="31" width="16.44140625" customWidth="1"/>
+    <col min="32" max="32" width="10.6640625" customWidth="1"/>
+    <col min="33" max="33" width="11.44140625" customWidth="1"/>
+    <col min="34" max="34" width="13.109375" customWidth="1"/>
+    <col min="36" max="36" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="44" width="10.109375" customWidth="1"/>
+    <col min="45" max="134" width="11.109375" customWidth="1"/>
+    <col min="135" max="1034" width="12.109375" customWidth="1"/>
+    <col min="1035" max="10034" width="13.109375" customWidth="1"/>
+    <col min="10035" max="16384" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="X1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="V1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="AJ1" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{6F6B7F38-CE8B-4B5A-A87B-0C54C365C129}">
+      <formula1 xml:space="preserve"> risk_data_type_h</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{8DB749F6-9D43-4367-B3ED-66DBAB0BB3DB}">
+      <formula1>catalog_h</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{7B32637C-6404-4E9E-9C9D-7C2DE2A89F9C}">
+      <formula1 xml:space="preserve"> subcategory_h</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{8D93E72B-4C7B-4754-ACBA-93124A16AF68}">
+      <formula1 xml:space="preserve"> category_h</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:AG1048576" xr:uid="{767F1AC4-B9CD-4839-9678-DEE62F52C722}">
+      <formula1 xml:space="preserve"> code_type</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576" xr:uid="{32A2892A-30E1-4C39-BD0A-261BCD917170}">
+      <formula1 xml:space="preserve"> publication_type</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576" xr:uid="{DD3E5E28-BA0E-4851-93A8-680D92ED79F8}">
+      <formula1 xml:space="preserve"> analysis_type</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576" xr:uid="{15075D65-72C4-4DF2-BED6-1DD66EFA329A}">
+      <formula1 xml:space="preserve"> license</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576" xr:uid="{C48312A8-F00A-4DC6-B852-BD5188F9B460}">
+      <formula1 xml:space="preserve"> provider_role</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576" xr:uid="{97FCCE03-C7BF-4619-A533-8F1726652EC0}">
+      <formula1 xml:space="preserve"> data_calculation_type</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576" xr:uid="{90F8C64D-E033-4941-894A-FA4E66601801}">
+      <formula1 xml:space="preserve"> scenarios</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576" xr:uid="{44690176-7F26-48D6-9F0D-20C0E4A28D35}">
+      <formula1 xml:space="preserve"> temporal_interval</formula1>
+    </dataValidation>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1" xr:uid="{7705380B-E9A9-40CF-91B6-2145ADC9532E}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576" xr:uid="{AD15F76D-2CD0-4300-8AC1-5865EEEA6437}">
+      <formula1 xml:space="preserve"> reference_period</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{2E98D901-182E-4979-9996-EA13EDB476D7}">
+      <formula1 xml:space="preserve"> spatial_resolution_unit</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576" xr:uid="{4ACACECF-0558-48AF-A8BE-1BD1BE65C00A}">
+      <formula1>9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{456CCD7B-5F63-42D7-A28A-E4E1DF6981C9}">
+      <formula1 xml:space="preserve"> crs_code</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{E688B1BB-D49F-41C6-BC15-278A0B44B6C2}">
+      <formula1 xml:space="preserve"> crs_name</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{4DE63349-5F13-484D-8E47-7C866F943C34}">
+      <formula1 xml:space="preserve"> spatial_scale</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{1C8C16A6-06C6-491B-9300-722CC5AA2017}">
+      <formula1 xml:space="preserve"> format</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{8CAEBDEB-6879-4307-8A8C-F75D5B53868A}">
+      <formula1 xml:space="preserve"> data_type</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:AJ200"/>
+  <sheetViews>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" customWidth="1"/>
+    <col min="18" max="18" width="21.5546875" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" customWidth="1"/>
+    <col min="23" max="23" width="21" customWidth="1"/>
+    <col min="24" max="24" width="20.44140625" customWidth="1"/>
+    <col min="25" max="25" width="15.88671875" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
+    <col min="27" max="27" width="13.88671875" customWidth="1"/>
+    <col min="29" max="29" width="13" customWidth="1"/>
+    <col min="30" max="30" width="15.6640625" customWidth="1"/>
+    <col min="31" max="31" width="16.44140625" customWidth="1"/>
+    <col min="32" max="32" width="10.6640625" customWidth="1"/>
+    <col min="33" max="33" width="11.44140625" customWidth="1"/>
+    <col min="34" max="34" width="13.109375" customWidth="1"/>
+    <col min="36" max="36" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="44" width="10.109375" customWidth="1"/>
+    <col min="45" max="134" width="11.109375" customWidth="1"/>
+    <col min="135" max="1034" width="12.109375" customWidth="1"/>
+    <col min="1035" max="10034" width="13.109375" customWidth="1"/>
+    <col min="10035" max="16384" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
         <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>45</v>
       </c>
       <c r="P2">
         <v>4326</v>
@@ -2225,102 +4015,102 @@
         <v>3</v>
       </c>
       <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>110</v>
+      </c>
+      <c r="T2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" t="s">
         <v>46</v>
       </c>
-      <c r="S2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>47</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y2" t="s">
         <v>48</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>49</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AA2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC2" t="s">
         <v>50</v>
       </c>
-      <c r="X2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AD2" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AE2" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AH2" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AI2" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AJ2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="I3" t="s">
         <v>56</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
         <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" t="s">
-        <v>45</v>
       </c>
       <c r="P3">
         <v>4326</v>
@@ -2329,102 +4119,102 @@
         <v>30</v>
       </c>
       <c r="R3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" t="s">
         <v>46</v>
       </c>
-      <c r="S3" t="s">
-        <v>115</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>47</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y3" t="s">
         <v>48</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Z3" t="s">
         <v>49</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AA3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC3" t="s">
         <v>50</v>
       </c>
-      <c r="X3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="AD3" t="s">
         <v>51</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AE3" t="s">
         <v>52</v>
       </c>
-      <c r="AA3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AH3" t="s">
         <v>53</v>
       </c>
-      <c r="AD3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>56</v>
-      </c>
       <c r="AI3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P4">
         <v>54009</v>
@@ -2433,102 +4223,102 @@
         <v>100</v>
       </c>
       <c r="R4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" t="s">
+        <v>110</v>
+      </c>
+      <c r="T4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
         <v>64</v>
-      </c>
-      <c r="S4" t="s">
-        <v>115</v>
-      </c>
-      <c r="T4" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X4" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" t="s">
-        <v>67</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P5">
         <v>54009</v>
@@ -2537,72 +4327,1035 @@
         <v>1000</v>
       </c>
       <c r="R5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" t="s">
         <v>47</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y5" t="s">
         <v>48</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Z5" t="s">
         <v>49</v>
       </c>
-      <c r="W5" t="s">
+      <c r="AA5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC5" t="s">
         <v>50</v>
       </c>
-      <c r="X5" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="AD5" t="s">
         <v>51</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AE5" t="s">
         <v>52</v>
       </c>
-      <c r="AA5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AH5" t="s">
         <v>53</v>
       </c>
-      <c r="AD5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>56</v>
-      </c>
       <c r="AI5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <dataValidations count="22">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>catalog2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>catalog1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1 xml:space="preserve"> catalog3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1 xml:space="preserve"> risk_data_type</formula1>
-    </dataValidation>
+  <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1 xml:space="preserve"> data_type</formula1>
     </dataValidation>
@@ -2618,10 +5371,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1 xml:space="preserve"> crs_code</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
-      <formula1>0</formula1>
-      <formula2>1000</formula2>
-    </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>9</formula1>
     </dataValidation>
@@ -2635,10 +5384,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1 xml:space="preserve"> temporal_interval</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1 xml:space="preserve"> scenarios</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0000-000010000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1 xml:space="preserve"> data_calculation_type</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576" xr:uid="{00000000-0002-0000-0000-000011000000}">
@@ -2656,503 +5405,517 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:AG1048576" xr:uid="{00000000-0002-0000-0000-000015000000}">
       <formula1 xml:space="preserve"> code_type</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{86E5AFF6-5B7F-4156-8E79-8ED1E2BC3645}">
+      <formula1 xml:space="preserve"> category_ev</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{475F8710-6A7C-4304-A26F-22E5AD410758}">
+      <formula1 xml:space="preserve"> subcategory_ev</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{1EE77555-D801-4ECC-A734-B1916CF408A6}">
+      <formula1>catalog_ev</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{EBA8BC65-0320-4727-B3CD-717E4CA2E4B3}">
+      <formula1 xml:space="preserve"> risk_data_type_ev</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="15" width="21.5546875" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="18" max="18" width="17.109375" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I2">
         <v>4326</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" t="s">
         <v>116</v>
       </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
       <c r="N2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" t="s">
         <v>128</v>
       </c>
-      <c r="Q2" t="s">
-        <v>133</v>
-      </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I3">
         <v>54009</v>
       </c>
       <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" t="s">
+        <v>141</v>
+      </c>
+      <c r="S3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" t="s">
         <v>110</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
         <v>114</v>
       </c>
-      <c r="L3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" t="s">
-        <v>149</v>
-      </c>
-      <c r="P3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="Q7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" t="s">
         <v>134</v>
       </c>
-      <c r="R3" t="s">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="O17" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="O18" t="s">
         <v>146</v>
       </c>
-      <c r="S3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" t="s">
-        <v>150</v>
-      </c>
-      <c r="P4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>135</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="C19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="O19" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="S4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" t="s">
-        <v>118</v>
-      </c>
-      <c r="M5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" t="s">
-        <v>142</v>
-      </c>
-      <c r="P5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" t="s">
-        <v>119</v>
-      </c>
-      <c r="O7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Q9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F38" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="18">
+  <tableParts count="23">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -3171,6 +5934,321 @@
     <tablePart r:id="rId16"/>
     <tablePart r:id="rId17"/>
     <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED2CD97-F820-47AC-950A-425B126C0902}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="142.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/csv/xls.xlsx
+++ b/csv/xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrn238\Documents\GitHub\climate-risk-stac\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE648457-675F-44A6-A0D1-79C9368AD2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F441A1E2-D7F9-40BD-A96A-7CA9188C7835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="category_h">Table2[category_h]</definedName>
     <definedName name="code_type">Table23[code_type]</definedName>
     <definedName name="crs_code">Table14[crs_code]</definedName>
-    <definedName name="crs_name">lists!$H$2:$H$3</definedName>
+    <definedName name="crs_name">lists!$H$2:$H$4</definedName>
     <definedName name="data_calculation_type">Table20[data_calculation_type]</definedName>
     <definedName name="data_type">Table10[data_type]</definedName>
     <definedName name="driver">Table1[catalog_h]</definedName>
@@ -57,12 +57,25 @@
     <definedName name="temporal_interval">Table18[temporal_interval]</definedName>
     <definedName name="time_interval">Table18[temporal_interval]</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="312">
   <si>
     <t>risk_data_type</t>
   </si>
@@ -170,11 +183,6 @@
   </si>
   <si>
     <t>GHS-POP</t>
-  </si>
-  <si>
-    <t>The Global Human Settlement Layer Population (GHS-POP) datasets _x000D_
-  are available in two different coordinate systems and two spatial resolutions each _x000D_
-  for the years 1975-2030 in 5-year time intervals.</t>
   </si>
   <si>
     <t>GHS-POP WGS84 3 arc seconds</t>
@@ -352,9 +360,6 @@
     <t>vector</t>
   </si>
   <si>
-    <t>tabular (lat/lon)</t>
-  </si>
-  <si>
     <t>geotiff</t>
   </si>
   <si>
@@ -565,15 +570,6 @@
     <t xml:space="preserve">Instructions: How to fill in the data sheet? </t>
   </si>
   <si>
-    <t>3) use the drop-down menus. If an item is not defined yet, please add it in the 'lists' tab in the respective table (row 1 = hazard data; row 15 = exposure-vulnerability data (if different from hazard))</t>
-  </si>
-  <si>
-    <t>1) select the right data category and subcategory (see hierarchical structure below)</t>
-  </si>
-  <si>
-    <t>2) follow the formatting of the example data provided (see 'description_attributes' tab for further details)</t>
-  </si>
-  <si>
     <t>column_name</t>
   </si>
   <si>
@@ -613,9 +609,6 @@
     <t>bounding box coordinates (WGS coordinates)</t>
   </si>
   <si>
-    <t>data type (i.e. raster, vector, tabular (lat/lon)</t>
-  </si>
-  <si>
     <t>data format (i.e. geotiff, geopackage, shapefile, geodatabase, csv)</t>
   </si>
   <si>
@@ -685,14 +678,540 @@
     <t>links to specific data files</t>
   </si>
   <si>
-    <t>4) provide the links to each data file if possible (column 'assets')</t>
+    <t>Gridded Population of the World Basic Demographic Characteristics, v4.11</t>
+  </si>
+  <si>
+    <t>GPW v4.11</t>
+  </si>
+  <si>
+    <t>The Global Human Settlement Layer Population (GHS-POP) datasets are available in two different coordinate systems and two spatial resolutions each for the years 1975-2030 in 5-year time intervals.</t>
+  </si>
+  <si>
+    <t>The Gridded Popoulation of the World Basic Demographic Characteristics (v4.11) datasets are available for 5-year age groups and distinguish female, male and the total population. They are provided in five spatial resolutions for the year 2010.</t>
+  </si>
+  <si>
+    <t>GPW v4.11 30 arc seconds</t>
+  </si>
+  <si>
+    <r>
+      <t>1) select the right</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (i.e. hazard or exposure-vulnerability)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4) use the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drop-down menus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. If an item is not defined yet, please add it in the 'lists' tab in the respective table: row 1 = hazard data; row 15 = exposure-vulnerability data (if different from hazard)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please only provide data available at</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> global or European scale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ascii</t>
+  </si>
+  <si>
+    <t>Global Flood Database</t>
+  </si>
+  <si>
+    <t>GFD</t>
+  </si>
+  <si>
+    <t>areal weighting (unmodeled)</t>
+  </si>
+  <si>
+    <t>Census and population registers</t>
+  </si>
+  <si>
+    <t>NASA Socioeconomic Data and Applications Center (SEDAC)</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/data/set/gpw-v4-basic-demographic-characteristics-rev11</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7927/H46M34XX</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>GPW is assembled from different census data and time steps per country, which align roughly with the year 2010. More details can be found in the documentation: https://sedac.ciesin.columbia.edu/binaries/web/sedac/collections/gpw-v4/gpw-v4-documentation-rev11.pdf</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a000_004_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a005_009_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a010_014_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a015_019_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a020_024_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a025_029_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a030_034_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a035_039_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a040_044_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a045_049_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a050_054_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a055_059_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a060_064_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a065_069_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a070_074_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a075_079_2010_30_sec_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a080_084_2010_30_sec_tif.zip</t>
+  </si>
+  <si>
+    <t>Gridded Population of the World Basic Demographic Characteristics, v4.12</t>
+  </si>
+  <si>
+    <t>Gridded Population of the World Basic Demographic Characteristics, v4.13</t>
+  </si>
+  <si>
+    <t>Gridded Population of the World Basic Demographic Characteristics, v4.14</t>
+  </si>
+  <si>
+    <t>Gridded Population of the World Basic Demographic Characteristics, v4.15</t>
+  </si>
+  <si>
+    <t>GPW v4.11 2.5 arc minutes</t>
+  </si>
+  <si>
+    <t>GPW v4.11 15 arc minutes</t>
+  </si>
+  <si>
+    <t>GPW v4.11 30 arc minutes</t>
+  </si>
+  <si>
+    <t>GPW v4.11 1 decimal degree</t>
+  </si>
+  <si>
+    <t>GPW v4.11 for all age groups and genders at a spatial resolution of 2.5 arc minutes in ascii format.</t>
+  </si>
+  <si>
+    <t>GPW v4.11 for all age groups and genders at a spatial resolution of 15 arc minutes in ascii format.</t>
+  </si>
+  <si>
+    <t>GPW v4.11 for all age groups and genders at a spatial resolution of 30 arc minutes in ascii format.</t>
+  </si>
+  <si>
+    <t>GPW v4.11 for all age groups and genders at a spatial resolution of 1 decimal degree in ascii format.</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/data/set/gpw-v4-basic-demographic-characteristics-rev12</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/data/set/gpw-v4-basic-demographic-characteristics-rev13</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/data/set/gpw-v4-basic-demographic-characteristics-rev14</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/data/set/gpw-v4-basic-demographic-characteristics-rev15</t>
+  </si>
+  <si>
+    <t>GPW v4.11 for all age groups and genders at a spatial resolution of 1 decimal degree in geotiff format.</t>
+  </si>
+  <si>
+    <t>Gridded Population of the World Basic Demographic Characteristics, v4.16</t>
+  </si>
+  <si>
+    <t>GPW v4.11 for all age groups and genders at a spatial resolution of 30 arc seconds in ascii format.</t>
+  </si>
+  <si>
+    <t>GPW v4.11 for all age groups and genders at a spatial resolution of 30 arc seconds in geotiff format.</t>
+  </si>
+  <si>
+    <t>GPW v4.11 for all age groups and genders at a spatial resolution of 2.5 arc minutes in geotiff format.</t>
+  </si>
+  <si>
+    <t>GPW v4.11 for all age groups and genders at a spatial resolution of 15 arc minutes in geotiff format.</t>
+  </si>
+  <si>
+    <t>GPW v4.11 for all age groups and genders at a spatial resolution of 30 arc minutes in geotiff format.</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/data/set/gpw-v4-basic-demographic-characteristics-rev16</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a000_004_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a005_009_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a010_014_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a015_019_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a020_024_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a025_029_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a030_034_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a035_039_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a040_044_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a045_049_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a050_054_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a055_059_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a060_064_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a065_069_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a070_074_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a075_079_2010_2pt5_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a080_084_2010_2pt5_min_tif.zip</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a000_004_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a005_009_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a010_014_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a015_019_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a020_024_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a025_029_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a030_034_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a035_039_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a040_044_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a045_049_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a050_054_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a055_059_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a060_064_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a065_069_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a070_074_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a075_079_2010_15_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a080_084_2010_15_min_tif.zip</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a000_004_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a005_009_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a010_014_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a015_019_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a020_024_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a025_029_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a030_034_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a035_039_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a040_044_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a045_049_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a050_054_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a055_059_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a060_064_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a065_069_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a070_074_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a075_079_2010_30_min_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a080_084_2010_30_min_tif.zip</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a000_004_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a005_009_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a010_014_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a015_019_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a020_024_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a025_029_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a030_034_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a035_039_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a040_044_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a045_049_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a050_054_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a055_059_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a060_064_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a065_069_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a070_074_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a075_079_2010_1_deg_tif.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a080_084_2010_1_deg_tif.zip</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a000_004_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a005_009_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a010_014_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a015_019_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a020_024_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a025_029_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a030_034_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a035_039_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a040_044_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a045_049_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a050_054_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a055_059_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a060_064_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a065_069_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a070_074_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a075_079_2010_30_sec_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a080_084_2010_30_sec_asc.zip</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a000_004_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a005_009_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a010_014_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a015_019_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a020_024_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a025_029_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a030_034_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a035_039_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a040_044_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a045_049_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a050_054_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a055_059_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a060_064_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a065_069_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a070_074_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a075_079_2010_2pt5_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a080_084_2010_2pt5_min_asc.zip</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a000_004_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a005_009_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a010_014_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a015_019_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a020_024_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a025_029_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a030_034_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a035_039_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a040_044_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a045_049_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a050_054_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a055_059_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a060_064_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a065_069_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a070_074_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a075_079_2010_15_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a080_084_2010_15_min_asc.zip</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a000_004_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a005_009_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a010_014_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a015_019_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a020_024_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a025_029_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a030_034_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a035_039_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a040_044_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a045_049_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a050_054_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a055_059_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a060_064_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a065_069_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a070_074_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a075_079_2010_30_min_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a080_084_2010_30_min_asc.zip</t>
+  </si>
+  <si>
+    <t>https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a000_004_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a005_009_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a010_014_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a015_019_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a020_024_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a025_029_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a030_034_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a035_039_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a040_044_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a045_049_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a050_054_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a055_059_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a060_064_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a065_069_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a070_074_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a075_079_2010_1_deg_asc.zip;https://sedac.ciesin.columbia.edu/downloads/data/gpw-v4/gpw-v4-basic-demographic-characteristics-rev11/gpw-v4-basic-demographic-characteristics-rev11_a080_084_2010_1_deg_asc.zip</t>
+  </si>
+  <si>
+    <t>Critical Infrastructure Spatial Index</t>
+  </si>
+  <si>
+    <t>CISI</t>
+  </si>
+  <si>
+    <t>CISI 0.1 decimal degrees</t>
+  </si>
+  <si>
+    <t>CISI 0.25 decimal degrees</t>
+  </si>
+  <si>
+    <t>equal weighting</t>
+  </si>
+  <si>
+    <t>Open Street Map (OSM)</t>
+  </si>
+  <si>
+    <t>Zenodo</t>
+  </si>
+  <si>
+    <r>
+      <t>https://doi.org/10.1038/s41597-022-01218-4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/4957647</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.4819987</t>
+  </si>
+  <si>
+    <t>The CISI is developed from OSM data and its spatial coverage depends on the completeness of OSM records.</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/4957647/files/Amount_of_infrastructure.zip?download=1</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/4957647/files/CISI.zip?download=1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.4819988</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.4819989</t>
+  </si>
+  <si>
+    <t>CISI at a spatial resolution of 0.1 decimal degrees</t>
+  </si>
+  <si>
+    <t>CISI at a spatial resolution of 0.25 decimal degrees</t>
+  </si>
+  <si>
+    <t>The Critical Infrastructure Spatial Index (CISI) is calculated from 39 critical infrastructure types (e.g. airports, clinics, landfills, reservoirs, schools) downloaded from Open Street Map (OSM).</t>
+  </si>
+  <si>
+    <t>CISI infrastructure types 0.1 decimal degrees</t>
+  </si>
+  <si>
+    <t>CISI infrastrcuture types 0.25 decimal degrees</t>
+  </si>
+  <si>
+    <t>CISI infrastructure types at a spatial resolution of 0.1 decimal degrees</t>
+  </si>
+  <si>
+    <t>CISI infrastructure types at a spatial resolution of 0.25 decimal degrees</t>
+  </si>
+  <si>
+    <t>Subnational Human Development Index (SHDI)</t>
+  </si>
+  <si>
+    <t>SHDI</t>
+  </si>
+  <si>
+    <t>tabular</t>
+  </si>
+  <si>
+    <t>administrative units</t>
+  </si>
+  <si>
+    <t>1990-2021</t>
+  </si>
+  <si>
+    <t>several data sources (see publication for further details)</t>
+  </si>
+  <si>
+    <t>Global Data Lab</t>
+  </si>
+  <si>
+    <t>https://globaldatalab.org/shdi/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/sdata.2019.38</t>
+  </si>
+  <si>
+    <t>The subnational Human Development Index (SHDI) is calculated from three dimensions: education, health and standard of living. All indicators used for the SHDI calculations are available.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.c.4353632</t>
+  </si>
+  <si>
+    <t>https://globaldatalab.org/asset/394/SHDI-SGDI-Total%207.0.csv</t>
+  </si>
+  <si>
+    <t>The csv file provided needs to be joined to the administrative units of the Global Data Lab (GDL) for download here: https://globaldatalab.org/geos/.</t>
+  </si>
+  <si>
+    <t>2000-2018</t>
+  </si>
+  <si>
+    <t>MODIS satellite imagery</t>
+  </si>
+  <si>
+    <t>Cloud to Street</t>
+  </si>
+  <si>
+    <t>https://global-flood-database.cloudtostreet.ai/#</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41586-021-03695-w</t>
+  </si>
+  <si>
+    <t>https://github.com/cloudtostreet/MODIS_GlobalFloodDatabase</t>
+  </si>
+  <si>
+    <t>The Global Flood Database provides satellite-derived flood footprints and depths for a variety of floods that occurred between 2000 and 2018.</t>
+  </si>
+  <si>
+    <t>The data do not differentiate flood types.</t>
+  </si>
+  <si>
+    <t>JRC flood hazard maps</t>
+  </si>
+  <si>
+    <t>https://data.jrc.ec.europa.eu/collection/id-0054</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.advwatres.2016.05.002</t>
+  </si>
+  <si>
+    <t>Cell values indicate water depth (in m)</t>
+  </si>
+  <si>
+    <t>https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp10y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp20y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp50y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp100y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp200y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp500y.zip</t>
+  </si>
+  <si>
+    <t>The datasets included in this collection depict flood prone areas in the World for river flood events of different magnitude, i.e. different six return periods from 1-in-10-year to 1-in-500-year events. The maps have been developed using hydrological and hydrodynamic models, driven by the climatological data of the Global Flood Awareness Systems (GloFAS).</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-14-1549-2022</t>
+  </si>
+  <si>
+    <t>ETRS89</t>
+  </si>
+  <si>
+    <t>-25, 17, 50, 70</t>
+  </si>
+  <si>
+    <t>The datasets included in this collection depict flood prone areas in Europe and the Mediterranean for river flood events of different magnitude, i.e. different six return periods from 1-in-10-year to 1-in-500-year events. The maps have been developed using hydrological and hydrodynamic models, driven by the climatological data of the European Flood Awareness Systems (EFAS). European-scale maps comprise most of the geographical Europe and all the river basins entering the Mediterranean and Black Seas in the Caucasus, Middle East and Northern Africa countries.</t>
+  </si>
+  <si>
+    <t>https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/EuropeanMaps/floodMap_RP010.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/EuropeanMaps/floodMap_RP020.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/EuropeanMaps/floodMap_RP050.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/EuropeanMaps/floodMap_RP100.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/EuropeanMaps/floodMap_RP200.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/EuropeanMaps/floodMap_RP500.zip</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide as much detail as possible, including the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> links to each data file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (column 'assets'). Mark cells with missing information in </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yellow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>name of person who added the dataset to the sheet (for possible follow-ups)</t>
+  </si>
+  <si>
+    <t>The datasets included in this collection depict flood prone areas in Europe and the World for river flood events of different magnitude, i.e. different six return periods from 1-in-10-year to 1-in-500-year events. The maps have been developed using hydrological and hydrodynamic models, driven by the climatological data of the European and Global Flood Awareness Systems (EFAS and GloFAS). European-scale maps comprise most of the geographical Europe and all the river basins entering the Mediterranean and Black Seas in the Caucasus, Middle East and Northern Africa countries.</t>
+  </si>
+  <si>
+    <r>
+      <t>2) select the right</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data category and subcategory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (if applicable)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>see hierarchical structure below</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3) follow the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> formatting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the example data provided (see 'description_attributes' tab for inputs required per column)</t>
+    </r>
+  </si>
+  <si>
+    <t>data type (i.e. raster, vector, tabular)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,8 +1360,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1028,6 +1563,12 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1209,7 +1750,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1219,14 +1760,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1306,6 +1858,13 @@
       </font>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1322,13 +1881,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1841,15 +2393,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>24438</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>24360</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>167639</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5672685</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3320414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1872,8 +2424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="2782878"/>
-          <a:ext cx="5655540" cy="3069281"/>
+          <a:off x="790575" y="3281988"/>
+          <a:ext cx="5491710" cy="3191201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1966,8 +2518,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table24" displayName="Table24" ref="R1:R4" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="R1:R4" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table24" displayName="Table24" ref="R1:R5" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="R1:R5" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="publication_type"/>
   </tableColumns>
@@ -2016,10 +2568,10 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{66345022-C6F1-4E69-8064-15BB2C37E459}" name="Table7" displayName="Table7" ref="A16:A17" totalsRowShown="0" dataDxfId="2" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{66345022-C6F1-4E69-8064-15BB2C37E459}" name="Table7" displayName="Table7" ref="A16:A17" totalsRowShown="0" dataDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A16:A17" xr:uid="{66345022-C6F1-4E69-8064-15BB2C37E459}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D5F16E67-2016-4C59-87CE-DF865B76EA1E}" name="catalog_ev" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{D5F16E67-2016-4C59-87CE-DF865B76EA1E}" name="catalog_ev" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2036,8 +2588,8 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FB3D51D1-8F5A-4CDF-9D78-D2C98BA079AA}" name="Table12" displayName="Table12" ref="O16:O19" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="O16:O19" xr:uid="{FB3D51D1-8F5A-4CDF-9D78-D2C98BA079AA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FB3D51D1-8F5A-4CDF-9D78-D2C98BA079AA}" name="Table12" displayName="Table12" ref="O16:O21" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="O16:O21" xr:uid="{FB3D51D1-8F5A-4CDF-9D78-D2C98BA079AA}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{4206EC5C-F751-4AD4-922C-B59BA748F91B}" name="analysis_type_ev"/>
   </tableColumns>
@@ -2046,8 +2598,8 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E57548BF-F6F8-4962-9D83-7D6183772EF6}" name="Table15" displayName="Table15" ref="A1:B36" totalsRowShown="0">
-  <autoFilter ref="A1:B36" xr:uid="{E57548BF-F6F8-4962-9D83-7D6183772EF6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E57548BF-F6F8-4962-9D83-7D6183772EF6}" name="Table15" displayName="Table15" ref="A1:B37" totalsRowShown="0">
+  <autoFilter ref="A1:B37" xr:uid="{E57548BF-F6F8-4962-9D83-7D6183772EF6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3011CF4D-0986-4C1C-9835-3788B0395F10}" name="column_name"/>
     <tableColumn id="2" xr3:uid="{A32B2325-F69E-4A30-B03B-EA2B3324B8A8}" name="description"/>
@@ -2087,8 +2639,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table11" displayName="Table11" ref="F1:F8" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44">
-  <autoFilter ref="F1:F8" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table11" displayName="Table11" ref="F1:F9" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44">
+  <autoFilter ref="F1:F9" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="format"/>
   </tableColumns>
@@ -2107,8 +2659,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table14" displayName="Table14" ref="H1:I3" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38">
-  <autoFilter ref="H1:I3" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table14" displayName="Table14" ref="H1:I4" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38">
+  <autoFilter ref="H1:I4" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="crs_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="crs_code"/>
@@ -2427,42 +2979,56 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="83.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>206</v>
       </c>
     </row>
+    <row r="7" spans="2:2" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="2:2" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="272.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2474,61 +3040,62 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:AJ200"/>
+  <dimension ref="A1:AJ198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" customWidth="1"/>
-    <col min="18" max="18" width="21.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
     <col min="19" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="19.5546875" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" customWidth="1"/>
     <col min="23" max="23" width="21" customWidth="1"/>
-    <col min="24" max="24" width="20.44140625" customWidth="1"/>
-    <col min="25" max="25" width="15.88671875" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" customWidth="1"/>
     <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="15.6640625" customWidth="1"/>
-    <col min="31" max="31" width="16.44140625" customWidth="1"/>
-    <col min="32" max="32" width="10.6640625" customWidth="1"/>
-    <col min="33" max="33" width="11.44140625" customWidth="1"/>
-    <col min="34" max="34" width="13.109375" customWidth="1"/>
-    <col min="36" max="36" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="44" width="10.109375" customWidth="1"/>
-    <col min="45" max="134" width="11.109375" customWidth="1"/>
-    <col min="135" max="1034" width="12.109375" customWidth="1"/>
-    <col min="1035" max="10034" width="13.109375" customWidth="1"/>
-    <col min="10035" max="16384" width="14.109375" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" customWidth="1"/>
+    <col min="36" max="36" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="44" width="10.140625" customWidth="1"/>
+    <col min="45" max="134" width="11.140625" customWidth="1"/>
+    <col min="135" max="1034" width="12.140625" customWidth="1"/>
+    <col min="1035" max="10034" width="13.140625" customWidth="1"/>
+    <col min="10035" max="16384" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2582,7 +3149,7 @@
         <v>16</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>17</v>
@@ -2591,7 +3158,7 @@
         <v>18</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>19</v>
@@ -2627,1114 +3194,1267 @@
         <v>29</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="H2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I2" t="s">
+        <v>300</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="M2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>41</v>
       </c>
+      <c r="P2">
+        <v>4326</v>
+      </c>
+      <c r="Q2">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>299</v>
+      </c>
       <c r="AJ2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="H3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>304</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
+        <v>303</v>
+      </c>
+      <c r="L3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>302</v>
+      </c>
+      <c r="P3">
+        <v>4258</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" t="s">
+        <v>106</v>
+      </c>
+      <c r="W3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" t="s">
         <v>40</v>
       </c>
-      <c r="M3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O4" t="s">
         <v>41</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
+      <c r="P4">
+        <v>4326</v>
+      </c>
+      <c r="Q4">
+        <v>2.2458000000000001E-3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" t="s">
+        <v>106</v>
+      </c>
+      <c r="T4" t="s">
+        <v>287</v>
+      </c>
+      <c r="U4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W4" t="s">
+        <v>117</v>
+      </c>
+      <c r="X4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI4" s="12"/>
       <c r="AJ4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>96</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="21">
+  <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{6F6B7F38-CE8B-4B5A-A87B-0C54C365C129}">
       <formula1 xml:space="preserve"> risk_data_type_h</formula1>
     </dataValidation>
@@ -3754,7 +4474,7 @@
       <formula1 xml:space="preserve"> publication_type</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576" xr:uid="{DD3E5E28-BA0E-4851-93A8-680D92ED79F8}">
-      <formula1 xml:space="preserve"> analysis_type</formula1>
+      <formula1 xml:space="preserve"> analysis_type_h</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576" xr:uid="{15075D65-72C4-4DF2-BED6-1DD66EFA329A}">
       <formula1 xml:space="preserve"> license</formula1>
@@ -3771,15 +4491,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576" xr:uid="{44690176-7F26-48D6-9F0D-20C0E4A28D35}">
       <formula1 xml:space="preserve"> temporal_interval</formula1>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1" xr:uid="{7705380B-E9A9-40CF-91B6-2145ADC9532E}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576" xr:uid="{AD15F76D-2CD0-4300-8AC1-5865EEEA6437}">
       <formula1 xml:space="preserve"> reference_period</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{2E98D901-182E-4979-9996-EA13EDB476D7}">
       <formula1 xml:space="preserve"> spatial_resolution_unit</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576" xr:uid="{4ACACECF-0558-48AF-A8BE-1BD1BE65C00A}">
-      <formula1>9</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{456CCD7B-5F63-42D7-A28A-E4E1DF6981C9}">
       <formula1 xml:space="preserve"> crs_code</formula1>
@@ -3792,6 +4508,10 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{1C8C16A6-06C6-491B-9300-722CC5AA2017}">
       <formula1 xml:space="preserve"> format</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{81146998-9105-4E84-A045-1795BC5EEB36}">
+      <formula1>4</formula1>
+      <formula2>9</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{8CAEBDEB-6879-4307-8A8C-F75D5B53868A}">
       <formula1 xml:space="preserve"> data_type</formula1>
@@ -3808,59 +4528,60 @@
   </sheetPr>
   <dimension ref="A1:AJ200"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" customWidth="1"/>
-    <col min="18" max="18" width="21.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
     <col min="19" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="19.5546875" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" customWidth="1"/>
     <col min="23" max="23" width="21" customWidth="1"/>
-    <col min="24" max="24" width="20.44140625" customWidth="1"/>
-    <col min="25" max="25" width="15.88671875" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" customWidth="1"/>
     <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="15.6640625" customWidth="1"/>
-    <col min="31" max="31" width="16.44140625" customWidth="1"/>
-    <col min="32" max="32" width="10.6640625" customWidth="1"/>
-    <col min="33" max="33" width="11.44140625" customWidth="1"/>
-    <col min="34" max="34" width="13.109375" customWidth="1"/>
-    <col min="36" max="36" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="44" width="10.109375" customWidth="1"/>
-    <col min="45" max="134" width="11.109375" customWidth="1"/>
-    <col min="135" max="1034" width="12.109375" customWidth="1"/>
-    <col min="1035" max="10034" width="13.109375" customWidth="1"/>
-    <col min="10035" max="16384" width="14.109375" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" customWidth="1"/>
+    <col min="36" max="36" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="44" width="10.140625" customWidth="1"/>
+    <col min="45" max="134" width="11.140625" customWidth="1"/>
+    <col min="135" max="1034" width="12.140625" customWidth="1"/>
+    <col min="1035" max="10034" width="13.140625" customWidth="1"/>
+    <col min="10035" max="16384" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -3914,7 +4635,7 @@
         <v>16</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>17</v>
@@ -3923,7 +4644,7 @@
         <v>18</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>19</v>
@@ -3959,10 +4680,10 @@
         <v>29</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3982,31 +4703,31 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="M2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>41</v>
-      </c>
-      <c r="O2" t="s">
-        <v>42</v>
       </c>
       <c r="P2">
         <v>4326</v>
@@ -4015,58 +4736,58 @@
         <v>3</v>
       </c>
       <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T2" t="s">
         <v>43</v>
       </c>
-      <c r="S2" t="s">
-        <v>110</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>44</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>45</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>46</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC2" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>52</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>53</v>
       </c>
-      <c r="AI2" t="s">
-        <v>54</v>
-      </c>
       <c r="AJ2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -4086,31 +4807,31 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" t="s">
         <v>40</v>
       </c>
-      <c r="M3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>41</v>
-      </c>
-      <c r="O3" t="s">
-        <v>42</v>
       </c>
       <c r="P3">
         <v>4326</v>
@@ -4119,58 +4840,58 @@
         <v>30</v>
       </c>
       <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" t="s">
         <v>43</v>
       </c>
-      <c r="S3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>44</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>45</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>46</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y3" t="s">
         <v>47</v>
       </c>
-      <c r="X3" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC3" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>50</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>51</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
         <v>52</v>
       </c>
-      <c r="AH3" t="s">
-        <v>53</v>
-      </c>
       <c r="AI3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4190,31 +4911,31 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
         <v>58</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
         <v>39</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P4">
         <v>54009</v>
@@ -4223,58 +4944,58 @@
         <v>100</v>
       </c>
       <c r="R4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" t="s">
         <v>61</v>
       </c>
-      <c r="S4" t="s">
-        <v>110</v>
-      </c>
-      <c r="T4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" t="s">
-        <v>46</v>
-      </c>
-      <c r="W4" t="s">
-        <v>47</v>
-      </c>
-      <c r="X4" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>62</v>
-      </c>
       <c r="AJ4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -4294,31 +5015,31 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="H5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" t="s">
         <v>63</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" t="s">
         <v>40</v>
       </c>
-      <c r="M5" t="s">
-        <v>96</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P5">
         <v>54009</v>
@@ -4327,1035 +5048,2454 @@
         <v>1000</v>
       </c>
       <c r="R5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
         <v>44</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>45</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>46</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y5" t="s">
         <v>47</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" t="s">
+        <v>237</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>208</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6">
+        <v>4326</v>
+      </c>
+      <c r="Q6">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T6">
+        <v>2010</v>
+      </c>
+      <c r="W6" t="s">
+        <v>118</v>
+      </c>
+      <c r="X6" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>208</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7">
+        <v>4326</v>
+      </c>
+      <c r="Q7">
+        <v>2.5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" t="s">
+        <v>106</v>
+      </c>
+      <c r="T7">
+        <v>2010</v>
+      </c>
+      <c r="W7" t="s">
+        <v>118</v>
+      </c>
+      <c r="X7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I8" t="s">
+        <v>228</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>208</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8">
+        <v>4326</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+      <c r="R8" t="s">
+        <v>103</v>
+      </c>
+      <c r="S8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8">
+        <v>2010</v>
+      </c>
+      <c r="W8" t="s">
+        <v>118</v>
+      </c>
+      <c r="X8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" t="s">
+        <v>229</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>208</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9">
+        <v>4326</v>
+      </c>
+      <c r="Q9">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" t="s">
+        <v>106</v>
+      </c>
+      <c r="T9">
+        <v>2010</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I10" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>208</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10">
+        <v>4326</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" t="s">
+        <v>106</v>
+      </c>
+      <c r="T10">
+        <v>2010</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11">
+        <v>4326</v>
+      </c>
+      <c r="Q11">
+        <v>30</v>
+      </c>
+      <c r="R11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" t="s">
+        <v>106</v>
+      </c>
+      <c r="T11">
+        <v>2010</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I12" t="s">
+        <v>239</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12">
+        <v>4326</v>
+      </c>
+      <c r="Q12">
+        <v>2.5</v>
+      </c>
+      <c r="R12" t="s">
+        <v>103</v>
+      </c>
+      <c r="S12" t="s">
+        <v>106</v>
+      </c>
+      <c r="T12">
+        <v>2010</v>
+      </c>
+      <c r="W12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I13" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13">
+        <v>4326</v>
+      </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+      <c r="R13" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" t="s">
+        <v>106</v>
+      </c>
+      <c r="T13">
+        <v>2010</v>
+      </c>
+      <c r="W13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" t="s">
+        <v>241</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14">
+        <v>4326</v>
+      </c>
+      <c r="Q14">
+        <v>30</v>
+      </c>
+      <c r="R14" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" t="s">
+        <v>106</v>
+      </c>
+      <c r="T14">
+        <v>2010</v>
+      </c>
+      <c r="W14" t="s">
+        <v>118</v>
+      </c>
+      <c r="X14" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H15" t="s">
+        <v>226</v>
+      </c>
+      <c r="I15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15">
+        <v>4326</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>104</v>
+      </c>
+      <c r="S15" t="s">
+        <v>106</v>
+      </c>
+      <c r="T15">
+        <v>2010</v>
+      </c>
+      <c r="W15" t="s">
+        <v>118</v>
+      </c>
+      <c r="X15" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" t="s">
+        <v>254</v>
+      </c>
+      <c r="I16" t="s">
+        <v>267</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16">
+        <v>4326</v>
+      </c>
+      <c r="Q16">
+        <v>0.1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>104</v>
+      </c>
+      <c r="S16" t="s">
+        <v>106</v>
+      </c>
+      <c r="T16">
+        <v>2021</v>
+      </c>
+      <c r="W16" t="s">
+        <v>117</v>
+      </c>
+      <c r="X16" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>261</v>
+      </c>
+      <c r="AG16" t="s">
         <v>137</v>
       </c>
-      <c r="Y5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="AH16" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI16" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" t="s">
+        <v>269</v>
+      </c>
+      <c r="H17" t="s">
+        <v>255</v>
+      </c>
+      <c r="I17" t="s">
+        <v>268</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17">
+        <v>4326</v>
+      </c>
+      <c r="Q17">
+        <v>0.25</v>
+      </c>
+      <c r="R17" t="s">
+        <v>104</v>
+      </c>
+      <c r="S17" t="s">
+        <v>106</v>
+      </c>
+      <c r="T17">
+        <v>2021</v>
+      </c>
+      <c r="W17" t="s">
+        <v>117</v>
+      </c>
+      <c r="X17" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>261</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" t="s">
+        <v>270</v>
+      </c>
+      <c r="I18" t="s">
+        <v>272</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18">
+        <v>4326</v>
+      </c>
+      <c r="Q18">
+        <v>0.1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>104</v>
+      </c>
+      <c r="S18" t="s">
+        <v>106</v>
+      </c>
+      <c r="T18">
+        <v>2021</v>
+      </c>
+      <c r="W18" t="s">
+        <v>117</v>
+      </c>
+      <c r="X18" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI18" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" t="s">
+        <v>269</v>
+      </c>
+      <c r="H19" t="s">
+        <v>271</v>
+      </c>
+      <c r="I19" t="s">
+        <v>273</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19">
+        <v>4326</v>
+      </c>
+      <c r="Q19">
+        <v>0.25</v>
+      </c>
+      <c r="R19" t="s">
+        <v>104</v>
+      </c>
+      <c r="S19" t="s">
+        <v>106</v>
+      </c>
+      <c r="T19">
+        <v>2021</v>
+      </c>
+      <c r="W19" t="s">
+        <v>117</v>
+      </c>
+      <c r="X19" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI19" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" t="s">
+        <v>283</v>
+      </c>
+      <c r="H20" t="s">
+        <v>274</v>
+      </c>
+      <c r="I20" t="s">
+        <v>283</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" t="s">
+        <v>276</v>
+      </c>
+      <c r="M20" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>277</v>
+      </c>
+      <c r="S20" t="s">
+        <v>106</v>
+      </c>
+      <c r="T20" t="s">
+        <v>278</v>
+      </c>
+      <c r="U20" t="s">
+        <v>111</v>
+      </c>
+      <c r="W20" t="s">
+        <v>117</v>
+      </c>
+      <c r="X20" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>286</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>285</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <dataValidations count="21">
+  <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1 xml:space="preserve"> data_type</formula1>
     </dataValidation>
@@ -5371,16 +7511,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1 xml:space="preserve"> crs_code</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
-      <formula1>9</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1 xml:space="preserve"> spatial_resolution_unit</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1 xml:space="preserve"> reference_period</formula1>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1 xml:space="preserve"> temporal_interval</formula1>
     </dataValidation>
@@ -5397,7 +7533,7 @@
       <formula1 xml:space="preserve"> license</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576" xr:uid="{00000000-0002-0000-0000-000013000000}">
-      <formula1 xml:space="preserve"> analysis_type</formula1>
+      <formula1 xml:space="preserve"> analysis_type_ev</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576" xr:uid="{00000000-0002-0000-0000-000014000000}">
       <formula1 xml:space="preserve"> publication_type</formula1>
@@ -5417,6 +7553,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{EBA8BC65-0320-4727-B3CD-717E4CA2E4B3}">
       <formula1 xml:space="preserve"> risk_data_type_ev</formula1>
     </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{A6BDFD6E-4B7B-4292-8D6D-0B73CB7ADD21}">
+      <formula1>4</formula1>
+      <formula2>9</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5427,41 +7567,41 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="14" max="15" width="21.5546875" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="18" max="18" width="17.109375" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
         <v>159</v>
-      </c>
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -5485,7 +7625,7 @@
         <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -5494,7 +7634,7 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>21</v>
@@ -5509,280 +7649,292 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
       </c>
       <c r="I2">
         <v>4326</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="S2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3">
         <v>54009</v>
       </c>
       <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4">
+        <v>4258</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R4" t="s">
+        <v>140</v>
+      </c>
+      <c r="S4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
         <v>105</v>
       </c>
-      <c r="K3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O3" t="s">
-        <v>144</v>
-      </c>
-      <c r="P3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>129</v>
-      </c>
-      <c r="R3" t="s">
-        <v>141</v>
-      </c>
-      <c r="S3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
         <v>112</v>
       </c>
-      <c r="M4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" t="s">
-        <v>145</v>
-      </c>
-      <c r="P4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>130</v>
-      </c>
-      <c r="R4" t="s">
-        <v>142</v>
-      </c>
-      <c r="S4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="Q7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
         <v>113</v>
       </c>
-      <c r="M5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="Q8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" t="s">
-        <v>158</v>
-      </c>
-      <c r="O16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -5791,26 +7943,26 @@
       <c r="C17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="O17" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>84</v>
+      <c r="O17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
@@ -5818,51 +7970,57 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="O18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="O19" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>86</v>
+      <c r="O19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C22" s="6" t="s">
-        <v>88</v>
+      <c r="O21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>87</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -5870,9 +8028,9 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -5880,9 +8038,9 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C24" s="6" t="s">
-        <v>90</v>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>89</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -5890,9 +8048,9 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -5900,9 +8058,9 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C26" s="6" t="s">
-        <v>92</v>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>91</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -5910,7 +8068,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F27" s="3"/>
     </row>
   </sheetData>
@@ -5945,304 +8103,312 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED2CD97-F820-47AC-950A-425B126C0902}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="142.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="142.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
       <c r="B4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/csv/xls.xlsx
+++ b/csv/xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrn238\Documents\GitHub\climate-risk-stac\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F441A1E2-D7F9-40BD-A96A-7CA9188C7835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415206ED-3483-45EE-833C-C6DA7BB2D221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="4" r:id="rId1"/>
@@ -1750,7 +1750,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1767,18 +1767,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2981,7 +2973,7 @@
   </sheetPr>
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2996,7 +2988,7 @@
       </c>
     </row>
     <row r="3" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3015,16 +3007,16 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="2:2" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="2:2" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="2:2" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="2:2" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:2" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3213,7 +3205,7 @@
       <c r="E2" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" t="s">
         <v>308</v>
       </c>
       <c r="H2" t="s">
@@ -3282,7 +3274,7 @@
       <c r="AH2" t="s">
         <v>298</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" t="s">
         <v>299</v>
       </c>
       <c r="AJ2" t="s">
@@ -3305,13 +3297,13 @@
       <c r="E3" t="s">
         <v>295</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" t="s">
         <v>308</v>
       </c>
       <c r="H3" t="s">
         <v>295</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" t="s">
         <v>304</v>
       </c>
       <c r="J3">
@@ -3374,7 +3366,7 @@
       <c r="AH3" t="s">
         <v>298</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AI3" t="s">
         <v>305</v>
       </c>
       <c r="AJ3" t="s">
@@ -3478,7 +3470,7 @@
       <c r="AH4" t="s">
         <v>294</v>
       </c>
-      <c r="AI4" s="12"/>
+      <c r="AI4" s="9"/>
       <c r="AJ4" t="s">
         <v>147</v>
       </c>
@@ -6176,7 +6168,7 @@
       <c r="AH16" t="s">
         <v>262</v>
       </c>
-      <c r="AI16" s="11" t="s">
+      <c r="AI16" t="s">
         <v>264</v>
       </c>
       <c r="AJ16" t="s">
@@ -6280,7 +6272,7 @@
       <c r="AH17" t="s">
         <v>262</v>
       </c>
-      <c r="AI17" s="11" t="s">
+      <c r="AI17" t="s">
         <v>264</v>
       </c>
       <c r="AJ17" t="s">
@@ -6384,7 +6376,7 @@
       <c r="AH18" t="s">
         <v>262</v>
       </c>
-      <c r="AI18" s="11" t="s">
+      <c r="AI18" t="s">
         <v>263</v>
       </c>
       <c r="AJ18" t="s">
@@ -6488,7 +6480,7 @@
       <c r="AH19" t="s">
         <v>262</v>
       </c>
-      <c r="AI19" s="11" t="s">
+      <c r="AI19" t="s">
         <v>263</v>
       </c>
       <c r="AJ19" t="s">
@@ -8105,7 +8097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED2CD97-F820-47AC-950A-425B126C0902}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>

--- a/csv/xls.xlsx
+++ b/csv/xls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/lena_reimann_vu_nl/Documents/Documents/GitHub/climate-risk-stac/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4CAE234-722A-4C5E-A7B5-791925D7A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D4CAE234-722A-4C5E-A7B5-791925D7A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F37286D8-D4C1-470A-B5B3-D85424C569A9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-3180" windowWidth="25180" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="4" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5582" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5583" uniqueCount="1192">
   <si>
     <t xml:space="preserve">Instructions: How to fill in the data sheet? </t>
   </si>
@@ -7135,8 +7135,8 @@
   </sheetPr>
   <dimension ref="A1:AI208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7313,6 +7313,9 @@
       </c>
       <c r="I2" s="12" t="s">
         <v>49</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>83</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>50</v>
@@ -14611,7 +14614,7 @@
   </sheetPr>
   <dimension ref="A1:AI201"/>
   <sheetViews>
-    <sheetView topLeftCell="I87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>

--- a/csv/xls.xlsx
+++ b/csv/xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/lena_reimann_vu_nl/Documents/Documents/GitHub/climate-risk-stac/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D4CAE234-722A-4C5E-A7B5-791925D7A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F37286D8-D4C1-470A-B5B3-D85424C569A9}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D4CAE234-722A-4C5E-A7B5-791925D7A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84A0B82E-CEC0-4C7C-B539-6811FA16697A}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-3180" windowWidth="25180" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-3180" windowWidth="25180" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="4" r:id="rId1"/>
@@ -7135,7 +7135,7 @@
   </sheetPr>
   <dimension ref="A1:AI208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="R25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -14614,8 +14614,8 @@
   </sheetPr>
   <dimension ref="A1:AI201"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+    <sheetView tabSelected="1" topLeftCell="AA87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA110" sqref="AA110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29099,11 +29099,12 @@
     <hyperlink ref="AB110" r:id="rId161" xr:uid="{F7C14BB0-B5DA-4210-BCD1-6EFEBB783A6B}"/>
     <hyperlink ref="AB111" r:id="rId162" xr:uid="{1262BD81-A28C-4A7F-9AA5-1180C57BDFCD}"/>
     <hyperlink ref="AB112" r:id="rId163" xr:uid="{08653CB2-3D8A-45B0-B840-5635CFBEB64A}"/>
+    <hyperlink ref="AA110" r:id="rId164" xr:uid="{1D50FF7D-324A-4718-BD2A-E0D05B7DF98F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId164"/>
+  <legacyDrawing r:id="rId165"/>
   <tableParts count="1">
-    <tablePart r:id="rId165"/>
+    <tablePart r:id="rId166"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/csv/xls.xlsx
+++ b/csv/xls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/lena_reimann_vu_nl/Documents/Documents/GitHub/climate-risk-stac/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{D4CAE234-722A-4C5E-A7B5-791925D7A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E7E571D-0780-4A5E-BBA9-B1A0E29DB48E}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{D4CAE234-722A-4C5E-A7B5-791925D7A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEE4C983-93C6-4CBF-9B0E-D57FCE944FD3}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-3180" windowWidth="25180" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5583" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5583" uniqueCount="1193">
   <si>
     <t xml:space="preserve">Instructions: How to fill in the data sheet? </t>
   </si>
@@ -4105,6 +4105,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.ejrh.2019.100593</t>
+  </si>
+  <si>
+    <t>10.7910/DVN/PRFF8V</t>
   </si>
 </sst>
 </file>
@@ -14613,8 +14616,8 @@
   </sheetPr>
   <dimension ref="A1:AI201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA110" sqref="AA110"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15109,10 +15112,10 @@
         <v>513</v>
       </c>
       <c r="AB5" s="39" t="s">
-        <v>514</v>
+        <v>1192</v>
       </c>
       <c r="AC5" s="32" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="AD5" s="32"/>
       <c r="AE5" s="32"/>
@@ -29009,7 +29012,7 @@
     <hyperlink ref="AB80" r:id="rId72" xr:uid="{9857F2DA-7A2F-41F7-89A8-C3C9A24B4CB1}"/>
     <hyperlink ref="AG80" r:id="rId73" xr:uid="{E1AC70FF-C2FE-475A-B568-24ED10875CF7}"/>
     <hyperlink ref="AA5" r:id="rId74" xr:uid="{B4903B9B-343D-4C94-90CF-B09CAFB06F57}"/>
-    <hyperlink ref="AB5" r:id="rId75" xr:uid="{5AE1B450-62FE-4A87-9230-137A08A21D92}"/>
+    <hyperlink ref="AB5" r:id="rId75" display="https://doi.org/10.7910/DVN/PRFF8V" xr:uid="{5AE1B450-62FE-4A87-9230-137A08A21D92}"/>
     <hyperlink ref="AG5" r:id="rId76" xr:uid="{4EFBE8AC-E871-43EF-BD8D-79B9874C3D70}"/>
     <hyperlink ref="AA28" r:id="rId77" xr:uid="{8497F84F-6543-42B9-9361-58EF7A4BD28B}"/>
     <hyperlink ref="AB28" r:id="rId78" xr:uid="{5416741B-C7A3-400B-8D3E-5C3654BAF644}"/>

--- a/csv/xls.xlsx
+++ b/csv/xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/lena_reimann_vu_nl/Documents/Documents/GitHub/climate-risk-stac/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{D4CAE234-722A-4C5E-A7B5-791925D7A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEE4C983-93C6-4CBF-9B0E-D57FCE944FD3}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{D4CAE234-722A-4C5E-A7B5-791925D7A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48B35DF-8174-4148-84CE-9D08FBD30479}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-3180" windowWidth="25180" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-3180" windowWidth="25180" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="4" r:id="rId1"/>
@@ -4104,10 +4104,10 @@
     <t>https://gwis-reports.s3-eu-west-1.amazonaws.com/WFRA/var-vuln-econ_unit-dimensionless.zip</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ejrh.2019.100593</t>
-  </si>
-  <si>
     <t>10.7910/DVN/PRFF8V</t>
+  </si>
+  <si>
+    <t>10.1016/j.ejrh.2019.100593</t>
   </si>
 </sst>
 </file>
@@ -4811,7 +4811,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4900,6 +4900,7 @@
     <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="42" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7138,8 +7139,8 @@
   </sheetPr>
   <dimension ref="A1:AI208"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7540,8 +7541,8 @@
       <c r="AA4" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AB4" s="48" t="s">
-        <v>1191</v>
+      <c r="AB4" s="72" t="s">
+        <v>1192</v>
       </c>
       <c r="AC4" t="s">
         <v>91</v>
@@ -7633,7 +7634,7 @@
       <c r="AA5" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="72" t="s">
         <v>107</v>
       </c>
       <c r="AC5" s="9" t="s">
@@ -14511,7 +14512,7 @@
     <hyperlink ref="AB6" r:id="rId37" xr:uid="{EABAB9C8-0B91-4A98-9C82-4A419970BA9A}"/>
     <hyperlink ref="AB7" r:id="rId38" xr:uid="{9F0561D3-7E24-42D9-8C4E-CD5C3B88764D}"/>
     <hyperlink ref="AB8" r:id="rId39" xr:uid="{CDC3BCD6-225C-43B9-BCCA-418F09827512}"/>
-    <hyperlink ref="AB4" r:id="rId40" xr:uid="{3E877577-8842-4798-99D6-DF26D7A6D6C9}"/>
+    <hyperlink ref="AB4" r:id="rId40" display="https://doi.org/10.1016/j.ejrh.2019.100593" xr:uid="{3E877577-8842-4798-99D6-DF26D7A6D6C9}"/>
     <hyperlink ref="AA44" r:id="rId41" location="!/dataset/sis-tourism-fire-danger-indicators?tab=overview" xr:uid="{96CB8A9E-64DC-40E3-A5CD-91038727F9C9}"/>
     <hyperlink ref="AG33" r:id="rId42" display="https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp10y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp20y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp50y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp100y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp200y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp500y.zip" xr:uid="{17E6576C-18D2-434D-8A6E-F0C2BFE1894E}"/>
     <hyperlink ref="AA45" r:id="rId43" location="!/dataset/10.24381/cds.0e89c522?tab=overview" xr:uid="{0CF63EAD-38AE-4DC7-971F-BFBAE804BE2F}"/>
@@ -14616,8 +14617,8 @@
   </sheetPr>
   <dimension ref="A1:AI201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15112,7 +15113,7 @@
         <v>513</v>
       </c>
       <c r="AB5" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AC5" s="32" t="s">
         <v>91</v>

--- a/csv/xls.xlsx
+++ b/csv/xls.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/lena_reimann_vu_nl/Documents/Documents/GitHub/climate-risk-stac/csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/lena_reimann_vu_nl/Documents/Global_data_repository_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{D4CAE234-722A-4C5E-A7B5-791925D7A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48B35DF-8174-4148-84CE-9D08FBD30479}"/>
+  <xr:revisionPtr revIDLastSave="6373" documentId="13_ncr:1_{415206ED-3483-45EE-833C-C6DA7BB2D221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD5E6D3F-8B9B-4D0D-95A6-4314975BFFB9}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-3180" windowWidth="25180" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="20240" yWindow="-2030" windowWidth="18720" windowHeight="11730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="4" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5583" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5582" uniqueCount="1192">
   <si>
     <t xml:space="preserve">Instructions: How to fill in the data sheet? </t>
   </si>
@@ -4104,10 +4104,7 @@
     <t>https://gwis-reports.s3-eu-west-1.amazonaws.com/WFRA/var-vuln-econ_unit-dimensionless.zip</t>
   </si>
   <si>
-    <t>10.7910/DVN/PRFF8V</t>
-  </si>
-  <si>
-    <t>10.1016/j.ejrh.2019.100593</t>
+    <t>https://doi.org/10.1016/j.ejrh.2019.100593</t>
   </si>
 </sst>
 </file>
@@ -7139,8 +7136,8 @@
   </sheetPr>
   <dimension ref="A1:AI208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7318,9 +7315,6 @@
       <c r="I2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="59" t="s">
-        <v>83</v>
-      </c>
       <c r="K2" s="14" t="s">
         <v>50</v>
       </c>
@@ -7542,7 +7536,7 @@
         <v>90</v>
       </c>
       <c r="AB4" s="72" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AC4" t="s">
         <v>91</v>
@@ -7634,7 +7628,7 @@
       <c r="AA5" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="AB5" s="72" t="s">
+      <c r="AB5" s="10" t="s">
         <v>107</v>
       </c>
       <c r="AC5" s="9" t="s">
@@ -14403,6 +14397,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AI208" xr:uid="{38A95863-A432-475C-8509-836AFF0CF9F4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI208">
     <sortCondition ref="AH1:AH208"/>
   </sortState>
@@ -14512,7 +14507,7 @@
     <hyperlink ref="AB6" r:id="rId37" xr:uid="{EABAB9C8-0B91-4A98-9C82-4A419970BA9A}"/>
     <hyperlink ref="AB7" r:id="rId38" xr:uid="{9F0561D3-7E24-42D9-8C4E-CD5C3B88764D}"/>
     <hyperlink ref="AB8" r:id="rId39" xr:uid="{CDC3BCD6-225C-43B9-BCCA-418F09827512}"/>
-    <hyperlink ref="AB4" r:id="rId40" display="https://doi.org/10.1016/j.ejrh.2019.100593" xr:uid="{3E877577-8842-4798-99D6-DF26D7A6D6C9}"/>
+    <hyperlink ref="AB4" r:id="rId40" xr:uid="{3E877577-8842-4798-99D6-DF26D7A6D6C9}"/>
     <hyperlink ref="AA44" r:id="rId41" location="!/dataset/sis-tourism-fire-danger-indicators?tab=overview" xr:uid="{96CB8A9E-64DC-40E3-A5CD-91038727F9C9}"/>
     <hyperlink ref="AG33" r:id="rId42" display="https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp10y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp20y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp50y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp100y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp200y.zip;https://cidportal.jrc.ec.europa.eu/ftp/jrc-opendata/FLOODS/GlobalMaps/floodMapGL_rp500y.zip" xr:uid="{17E6576C-18D2-434D-8A6E-F0C2BFE1894E}"/>
     <hyperlink ref="AA45" r:id="rId43" location="!/dataset/10.24381/cds.0e89c522?tab=overview" xr:uid="{0CF63EAD-38AE-4DC7-971F-BFBAE804BE2F}"/>
@@ -14617,8 +14612,8 @@
   </sheetPr>
   <dimension ref="A1:AI201"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView topLeftCell="I87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15113,10 +15108,10 @@
         <v>513</v>
       </c>
       <c r="AB5" s="39" t="s">
-        <v>1191</v>
+        <v>514</v>
       </c>
       <c r="AC5" s="32" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="AD5" s="32"/>
       <c r="AE5" s="32"/>
@@ -29013,7 +29008,7 @@
     <hyperlink ref="AB80" r:id="rId72" xr:uid="{9857F2DA-7A2F-41F7-89A8-C3C9A24B4CB1}"/>
     <hyperlink ref="AG80" r:id="rId73" xr:uid="{E1AC70FF-C2FE-475A-B568-24ED10875CF7}"/>
     <hyperlink ref="AA5" r:id="rId74" xr:uid="{B4903B9B-343D-4C94-90CF-B09CAFB06F57}"/>
-    <hyperlink ref="AB5" r:id="rId75" display="https://doi.org/10.7910/DVN/PRFF8V" xr:uid="{5AE1B450-62FE-4A87-9230-137A08A21D92}"/>
+    <hyperlink ref="AB5" r:id="rId75" xr:uid="{5AE1B450-62FE-4A87-9230-137A08A21D92}"/>
     <hyperlink ref="AG5" r:id="rId76" xr:uid="{4EFBE8AC-E871-43EF-BD8D-79B9874C3D70}"/>
     <hyperlink ref="AA28" r:id="rId77" xr:uid="{8497F84F-6543-42B9-9361-58EF7A4BD28B}"/>
     <hyperlink ref="AB28" r:id="rId78" xr:uid="{5416741B-C7A3-400B-8D3E-5C3654BAF644}"/>
@@ -29102,12 +29097,11 @@
     <hyperlink ref="AB110" r:id="rId161" xr:uid="{F7C14BB0-B5DA-4210-BCD1-6EFEBB783A6B}"/>
     <hyperlink ref="AB111" r:id="rId162" xr:uid="{1262BD81-A28C-4A7F-9AA5-1180C57BDFCD}"/>
     <hyperlink ref="AB112" r:id="rId163" xr:uid="{08653CB2-3D8A-45B0-B840-5635CFBEB64A}"/>
-    <hyperlink ref="AA110" r:id="rId164" xr:uid="{1D50FF7D-324A-4718-BD2A-E0D05B7DF98F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId165"/>
+  <legacyDrawing r:id="rId164"/>
   <tableParts count="1">
-    <tablePart r:id="rId166"/>
+    <tablePart r:id="rId165"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
